--- a/final-report/ISO-GeoDCAT-AP_Pilot_issues_v3_FinalReport.xlsx
+++ b/final-report/ISO-GeoDCAT-AP_Pilot_issues_v3_FinalReport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA0C9E-E2FD-4BA5-8523-6E34C0BC24CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A0E03-BF0D-4B36-AF03-5034BBE23FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="224">
   <si>
     <t>Origin</t>
   </si>
@@ -1074,6 +1074,9 @@
       </rPr>
       <t>SEMICeu/DCAT-AP#175</t>
     </r>
+  </si>
+  <si>
+    <t>@JRC - follow up in 2nd pilot (topic: provision and transformation of service metadata)</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1384,32 +1387,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1418,9 +1397,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1480,9 +1456,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1493,13 +1466,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2071,75 +2077,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:J8"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:10" s="60" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="71" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:10" s="61" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+    </row>
+    <row r="3" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2257,7 +2263,7 @@
       <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="62" t="s">
         <v>133</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -2267,7 +2273,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
@@ -2290,21 +2296,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-    </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -2364,11 +2370,11 @@
       <c r="I10" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="63" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -2428,57 +2434,57 @@
       <c r="I12" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="J12" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="65" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="40" t="s">
+      <c r="E13" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="24" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
+    <row r="14" spans="1:10" s="24" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="71"/>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -2535,28 +2541,28 @@
       <c r="H16" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="64" t="s">
         <v>177</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-    </row>
-    <row r="18" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -2616,11 +2622,11 @@
       <c r="I19" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2716,53 +2722,53 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="68" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="36"/>
+    <row r="24" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>83</v>
       </c>
@@ -2790,25 +2796,25 @@
       <c r="I25" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J25" s="63" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+    <row r="26" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-    </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2834,11 +2840,11 @@
         <v>156</v>
       </c>
       <c r="I27" s="30"/>
-      <c r="J27" s="73" t="s">
+      <c r="J27" s="63" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -2866,12 +2872,12 @@
       <c r="I28" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="63" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+    <row r="29" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2880,43 +2886,43 @@
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37" t="s">
+      <c r="I29" s="68"/>
+      <c r="J29" s="68" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
       <c r="B30" s="3"/>
       <c r="C30" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="36"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-    </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+    </row>
+    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -2971,62 +2977,62 @@
       <c r="H32" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="I32" s="73" t="s">
+      <c r="I32" s="63" t="s">
         <v>162</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="65" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="67" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="77" t="s">
+      <c r="J33" s="69" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+    <row r="34" spans="1:10" s="22" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="G34" s="66"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+    </row>
+    <row r="35" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -3048,11 +3054,11 @@
         <v>165</v>
       </c>
       <c r="I35" s="30"/>
-      <c r="J35" s="73" t="s">
+      <c r="J35" s="63" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3064,7 +3070,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3076,7 +3082,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3088,7 +3094,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3100,7 +3106,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3112,7 +3118,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3124,7 +3130,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3136,7 +3142,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3148,7 +3154,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3160,7 +3166,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3172,7 +3178,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3184,7 +3190,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3196,7 +3202,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3208,7 +3214,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3220,7 +3226,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3232,7 +3238,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3244,7 +3250,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3256,7 +3262,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3268,7 +3274,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3280,7 +3286,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3292,7 +3298,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3304,7 +3310,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3316,7 +3322,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3328,7 +3334,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3340,7 +3346,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3352,7 +3358,7 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3364,7 +3370,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3376,7 +3382,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3388,7 +3394,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3400,7 +3406,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3412,7 +3418,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3424,7 +3430,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3436,7 +3442,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3448,7 +3454,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3460,7 +3466,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3472,7 +3478,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3484,7 +3490,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3496,7 +3502,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3508,7 +3514,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3520,7 +3526,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3532,7 +3538,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3544,7 +3550,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3556,7 +3562,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3568,7 +3574,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3580,7 +3586,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3592,7 +3598,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3604,7 +3610,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3616,7 +3622,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3628,7 +3634,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3640,7 +3646,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3652,7 +3658,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3664,7 +3670,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3676,7 +3682,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3688,7 +3694,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3700,7 +3706,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3712,7 +3718,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3724,7 +3730,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3736,7 +3742,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3748,7 +3754,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3760,7 +3766,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3772,7 +3778,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3784,7 +3790,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3796,7 +3802,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3808,7 +3814,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3820,7 +3826,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3832,7 +3838,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3847,26 +3853,7 @@
   </sheetData>
   <autoFilter ref="A1:J35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="37">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A13:A14"/>
@@ -3883,7 +3870,26 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3950,25 +3956,25 @@
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="20.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="29"/>
-    <col min="12" max="12" width="34.5703125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="63"/>
-    <col min="14" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="9.109375" style="29"/>
+    <col min="2" max="2" width="20.5546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="49.88671875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="29"/>
+    <col min="12" max="12" width="34.5546875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="54"/>
+    <col min="14" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3999,33 +4005,33 @@
       <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="44" t="s">
         <v>182</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
@@ -4047,10 +4053,10 @@
       <c r="G3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="37" t="s">
         <v>134</v>
       </c>
       <c r="J3" s="18" t="s">
@@ -4059,14 +4065,14 @@
       <c r="K3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
@@ -4091,14 +4097,14 @@
       <c r="K4" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
@@ -4135,11 +4141,11 @@
       <c r="L5" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>83</v>
       </c>
@@ -4161,13 +4167,13 @@
       <c r="G6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="37" t="s">
         <v>175</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="40" t="s">
         <v>114</v>
       </c>
       <c r="K6" s="29" t="s">
@@ -4176,27 +4182,27 @@
       <c r="L6" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="288" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
@@ -4218,10 +4224,10 @@
       <c r="G8" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="37" t="s">
         <v>127</v>
       </c>
       <c r="J8" s="25" t="s">
@@ -4233,11 +4239,11 @@
       <c r="L8" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
@@ -4259,13 +4265,13 @@
       <c r="G9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="37" t="s">
         <v>137</v>
       </c>
       <c r="K9" s="29" t="s">
@@ -4274,11 +4280,11 @@
       <c r="L9" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
@@ -4300,13 +4306,13 @@
       <c r="G10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="37" t="s">
         <v>147</v>
       </c>
       <c r="K10" s="29" t="s">
@@ -4315,11 +4321,11 @@
       <c r="L10" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
@@ -4341,13 +4347,13 @@
       <c r="G11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="37" t="s">
         <v>147</v>
       </c>
       <c r="K11" s="29" t="s">
@@ -4356,11 +4362,11 @@
       <c r="L11" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>83</v>
       </c>
@@ -4382,13 +4388,13 @@
       <c r="G12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="39" t="s">
         <v>155</v>
       </c>
       <c r="K12" s="29" t="s">
@@ -4397,11 +4403,11 @@
       <c r="L12" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
@@ -4423,10 +4429,10 @@
       <c r="G13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="37" t="s">
         <v>158</v>
       </c>
       <c r="J13" s="28" t="s">
@@ -4435,70 +4441,70 @@
       <c r="K13" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="65" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>119</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="52" t="s">
+      <c r="K14" s="43" t="s">
         <v>105</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+    <row r="15" spans="1:13" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="43"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="52" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="43" t="s">
         <v>180</v>
       </c>
       <c r="L15" s="32" t="s">
@@ -4508,37 +4514,37 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-    </row>
-    <row r="18" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" spans="1:13" ht="288" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
@@ -4560,10 +4566,10 @@
       <c r="G18" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="37" t="s">
         <v>127</v>
       </c>
       <c r="J18" s="25" t="s">
@@ -4575,11 +4581,11 @@
       <c r="L18" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="63">
+      <c r="M18" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
@@ -4601,7 +4607,7 @@
       <c r="G19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="37" t="s">
         <v>129</v>
       </c>
       <c r="I19" s="30" t="s">
@@ -4616,11 +4622,11 @@
       <c r="L19" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
@@ -4642,7 +4648,7 @@
       <c r="G20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="37" t="s">
         <v>142</v>
       </c>
       <c r="I20" s="30" t="s">
@@ -4657,11 +4663,11 @@
       <c r="L20" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
@@ -4686,10 +4692,10 @@
       <c r="H21" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="39" t="s">
         <v>140</v>
       </c>
       <c r="K21" s="25" t="s">
@@ -4702,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>19</v>
       </c>
@@ -4724,13 +4730,13 @@
       <c r="G22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="37" t="s">
         <v>150</v>
       </c>
       <c r="K22" s="29" t="s">
@@ -4739,75 +4745,75 @@
       <c r="L22" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="43" t="s">
         <v>97</v>
       </c>
       <c r="L23" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="36"/>
+    <row r="24" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="52" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="43" t="s">
         <v>179</v>
       </c>
       <c r="L24" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="M24" s="63" t="s">
+      <c r="M24" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>83</v>
       </c>
@@ -4829,13 +4835,13 @@
       <c r="G25" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="39" t="s">
         <v>155</v>
       </c>
       <c r="K25" s="29" t="s">
@@ -4844,50 +4850,50 @@
       <c r="L25" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:13" s="45" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="61" t="s">
+      <c r="I26" s="47"/>
+      <c r="J26" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="54" t="s">
+      <c r="K26" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="55" t="s">
+      <c r="L26" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>70</v>
       </c>
@@ -4909,10 +4915,10 @@
       <c r="G27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="37" t="s">
         <v>158</v>
       </c>
       <c r="J27" s="28" t="s">
@@ -4921,15 +4927,15 @@
       <c r="K27" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="55" t="s">
+      <c r="L27" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4938,61 +4944,61 @@
       <c r="C28" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="48" t="s">
+      <c r="I28" s="65"/>
+      <c r="J28" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="43" t="s">
         <v>105</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
       <c r="B29" s="3"/>
       <c r="C29" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="52" t="s">
+      <c r="G29" s="68"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="43" t="s">
         <v>180</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="M29" s="63" t="s">
+      <c r="M29" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>75</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>161</v>
       </c>
       <c r="I30" s="25"/>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="37" t="s">
         <v>160</v>
       </c>
       <c r="K30" s="29" t="s">
@@ -5027,11 +5033,11 @@
       <c r="L30" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M30" s="63">
+      <c r="M30" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>121</v>
       </c>
@@ -5056,7 +5062,7 @@
       <c r="H31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="41" t="s">
         <v>177</v>
       </c>
       <c r="J31" s="28" t="s">
@@ -5065,14 +5071,14 @@
       <c r="K31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L31" s="55" t="s">
+      <c r="L31" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M31" s="63">
+      <c r="M31" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>75</v>
       </c>
@@ -5094,10 +5100,10 @@
       <c r="G32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="39" t="s">
         <v>162</v>
       </c>
       <c r="J32" s="25" t="s">
@@ -5109,67 +5115,67 @@
       <c r="L32" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M32" s="63">
+      <c r="M32" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="65" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="67" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="43" t="s">
         <v>105</v>
       </c>
       <c r="L33" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M33" s="63">
+      <c r="M33" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+    <row r="34" spans="1:13" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="52" t="s">
+      <c r="G34" s="66"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="43" t="s">
         <v>180</v>
       </c>
       <c r="L34" s="32" t="s">
@@ -5179,7 +5185,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>83</v>
       </c>
@@ -5197,24 +5203,24 @@
       <c r="G35" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="37" t="s">
         <v>165</v>
       </c>
       <c r="I35" s="25"/>
-      <c r="J35" s="47" t="s">
+      <c r="J35" s="39" t="s">
         <v>106</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L35" s="55" t="s">
+      <c r="L35" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M35" s="63">
+      <c r="M35" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>11</v>
       </c>
@@ -5239,7 +5245,7 @@
       <c r="H36" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="37" t="s">
         <v>167</v>
       </c>
       <c r="J36" s="28" t="s">
@@ -5248,14 +5254,14 @@
       <c r="K36" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="55" t="s">
+      <c r="L36" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="63">
+      <c r="M36" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>19</v>
       </c>
@@ -5283,7 +5289,7 @@
       <c r="I37" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="37" t="s">
         <v>172</v>
       </c>
       <c r="K37" s="29" t="s">
@@ -5292,11 +5298,11 @@
       <c r="L37" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="M37" s="63">
+      <c r="M37" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>19</v>
       </c>
@@ -5318,7 +5324,7 @@
       <c r="G38" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="37" t="s">
         <v>171</v>
       </c>
       <c r="I38" s="25" t="s">
@@ -5330,92 +5336,92 @@
       <c r="K38" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L38" s="55" t="s">
+      <c r="L38" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M38" s="63">
+      <c r="M38" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="65" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="40" t="s">
+      <c r="E39" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="J39" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="K39" s="52" t="s">
+      <c r="K39" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L39" s="55" t="s">
+      <c r="L39" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="M39" s="63">
+      <c r="M39" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="40"/>
+    <row r="40" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="65"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="52" t="s">
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="55" t="s">
+      <c r="L40" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="M40" s="63" t="s">
+      <c r="M40" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -5427,7 +5433,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -5439,7 +5445,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -5451,7 +5457,7 @@
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -5463,7 +5469,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -5475,7 +5481,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -5487,7 +5493,7 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -5499,7 +5505,7 @@
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -5511,7 +5517,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -5523,7 +5529,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -5535,7 +5541,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -5547,7 +5553,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -5559,7 +5565,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -5571,7 +5577,7 @@
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -5583,7 +5589,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -5595,7 +5601,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -5607,7 +5613,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -5619,7 +5625,7 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -5631,7 +5637,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -5643,7 +5649,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -5655,7 +5661,7 @@
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -5667,7 +5673,7 @@
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -5679,7 +5685,7 @@
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -5691,7 +5697,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -5703,7 +5709,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -5715,7 +5721,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -5727,7 +5733,7 @@
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -5739,7 +5745,7 @@
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -5751,7 +5757,7 @@
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -5763,7 +5769,7 @@
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="35"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -5775,7 +5781,7 @@
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -5787,7 +5793,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="35"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -5799,7 +5805,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="35"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -5811,7 +5817,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="35"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -5823,7 +5829,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="35"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -5835,7 +5841,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="35"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -5847,7 +5853,7 @@
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="35"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -5859,7 +5865,7 @@
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="35"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -5871,7 +5877,7 @@
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="35"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -5883,7 +5889,7 @@
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="35"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -5895,7 +5901,7 @@
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="35"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -5907,7 +5913,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="35"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -5919,7 +5925,7 @@
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="35"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -5931,7 +5937,7 @@
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="35"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -5943,7 +5949,7 @@
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="35"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -5955,7 +5961,7 @@
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="35"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -5967,7 +5973,7 @@
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -5979,7 +5985,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -5991,7 +5997,7 @@
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="35"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -6003,7 +6009,7 @@
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="35"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -6015,7 +6021,7 @@
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="35"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -6027,7 +6033,7 @@
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="35"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -6039,7 +6045,7 @@
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="35"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -6051,7 +6057,7 @@
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="35"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -6063,7 +6069,7 @@
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="35"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -6075,7 +6081,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="35"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -6087,7 +6093,7 @@
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="35"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -6099,7 +6105,7 @@
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="35"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -6111,7 +6117,7 @@
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="35"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -6123,7 +6129,7 @@
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="35"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -6135,7 +6141,7 @@
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="35"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -6147,7 +6153,7 @@
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="35"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
@@ -6159,7 +6165,7 @@
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="35"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -6171,7 +6177,7 @@
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="35"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
@@ -6183,7 +6189,7 @@
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="35"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -6195,7 +6201,7 @@
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="35"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
@@ -6210,6 +6216,34 @@
   </sheetData>
   <autoFilter ref="A1:L41" xr:uid="{4480EAD1-4F55-4214-AE8A-7624B5BDC8D3}"/>
   <mergeCells count="44">
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A2:J2"/>
@@ -6226,34 +6260,6 @@
     <mergeCell ref="J33:J34"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{550D631C-9E1C-4602-8F91-A376045FC4E2}"/>
@@ -6320,30 +6326,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE33BC-0D46-48BA-B9DE-31A62492210F}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="20.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="29"/>
-    <col min="12" max="12" width="34.5703125" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="9.109375" style="29"/>
+    <col min="2" max="2" width="20.5546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="49.88671875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="29"/>
+    <col min="12" max="12" width="34.5546875" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6374,14 +6380,14 @@
       <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="44" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
@@ -6403,10 +6409,10 @@
       <c r="G2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="37" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="25" t="s">
@@ -6419,7 +6425,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
@@ -6441,7 +6447,7 @@
       <c r="G3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="37" t="s">
         <v>129</v>
       </c>
       <c r="I3" s="30" t="s">
@@ -6457,7 +6463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>19</v>
       </c>
@@ -6479,7 +6485,7 @@
       <c r="G4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="37" t="s">
         <v>142</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -6495,7 +6501,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>19</v>
       </c>
@@ -6517,10 +6523,10 @@
       <c r="G5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="37" t="s">
         <v>134</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -6529,11 +6535,11 @@
       <c r="K5" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>66</v>
       </c>
@@ -6558,11 +6564,11 @@
       <c r="K6" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
@@ -6584,13 +6590,13 @@
       <c r="G7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="37" t="s">
         <v>137</v>
       </c>
       <c r="K7" s="29" t="s">
@@ -6600,7 +6606,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
@@ -6625,10 +6631,10 @@
       <c r="H8" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="39" t="s">
         <v>140</v>
       </c>
       <c r="K8" s="25" t="s">
@@ -6638,7 +6644,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
@@ -6660,13 +6666,13 @@
       <c r="G9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="37" t="s">
         <v>147</v>
       </c>
       <c r="K9" s="29" t="s">
@@ -6676,7 +6682,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
@@ -6698,13 +6704,13 @@
       <c r="G10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="37" t="s">
         <v>147</v>
       </c>
       <c r="K10" s="29" t="s">
@@ -6714,7 +6720,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
@@ -6736,13 +6742,13 @@
       <c r="G11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="37" t="s">
         <v>150</v>
       </c>
       <c r="K11" s="29" t="s">
@@ -6752,65 +6758,65 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="43" t="s">
         <v>97</v>
       </c>
       <c r="L12" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="36"/>
+    <row r="13" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="52" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="43" t="s">
         <v>179</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>83</v>
       </c>
@@ -6832,13 +6838,13 @@
       <c r="G14" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="39" t="s">
         <v>155</v>
       </c>
       <c r="K14" s="29" t="s">
@@ -6848,43 +6854,43 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+    <row r="15" spans="1:12" s="45" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="61" t="s">
+      <c r="I15" s="47"/>
+      <c r="J15" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>70</v>
       </c>
@@ -6906,10 +6912,10 @@
       <c r="G16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="37" t="s">
         <v>158</v>
       </c>
       <c r="J16" s="28" t="s">
@@ -6918,12 +6924,12 @@
       <c r="K16" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -6932,55 +6938,55 @@
       <c r="C17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="48" t="s">
+      <c r="I17" s="65"/>
+      <c r="J17" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="43" t="s">
         <v>105</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
       <c r="B18" s="3"/>
       <c r="C18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="36"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="52" t="s">
+      <c r="G18" s="68"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="43" t="s">
         <v>180</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>75</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>161</v>
       </c>
       <c r="I19" s="25"/>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="37" t="s">
         <v>160</v>
       </c>
       <c r="K19" s="29" t="s">
@@ -7016,7 +7022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>75</v>
       </c>
@@ -7038,10 +7044,10 @@
       <c r="G20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="39" t="s">
         <v>162</v>
       </c>
       <c r="J20" s="25" t="s">
@@ -7054,67 +7060,67 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="65" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="67" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="43" t="s">
         <v>105</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
+    <row r="22" spans="1:12" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="43"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="52" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="43" t="s">
         <v>180</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>83</v>
       </c>
@@ -7132,21 +7138,21 @@
       <c r="G23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="37" t="s">
         <v>165</v>
       </c>
       <c r="I23" s="25"/>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="39" t="s">
         <v>106</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>8</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>11</v>
       </c>
@@ -7209,7 +7215,7 @@
       <c r="H25" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="37" t="s">
         <v>167</v>
       </c>
       <c r="J25" s="28" t="s">
@@ -7218,11 +7224,11 @@
       <c r="K25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L25" s="55" t="s">
+      <c r="L25" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
@@ -7250,7 +7256,7 @@
       <c r="I26" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="37" t="s">
         <v>172</v>
       </c>
       <c r="K26" s="29" t="s">
@@ -7260,7 +7266,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>19</v>
       </c>
@@ -7282,7 +7288,7 @@
       <c r="G27" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="37" t="s">
         <v>171</v>
       </c>
       <c r="I27" s="25" t="s">
@@ -7294,69 +7300,69 @@
       <c r="K27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="55" t="s">
+      <c r="L27" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="65" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="40" t="s">
+      <c r="E28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="55" t="s">
+      <c r="L28" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="40"/>
+    <row r="29" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="52" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="L29" s="55" t="s">
+      <c r="L29" s="46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>83</v>
       </c>
@@ -7378,13 +7384,13 @@
       <c r="G30" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="37" t="s">
         <v>175</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="40" t="s">
         <v>114</v>
       </c>
       <c r="K30" s="29" t="s">
@@ -7394,7 +7400,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>121</v>
       </c>
@@ -7419,7 +7425,7 @@
       <c r="H31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="41" t="s">
         <v>177</v>
       </c>
       <c r="J31" s="28" t="s">
@@ -7428,11 +7434,11 @@
       <c r="K31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L31" s="55" t="s">
+      <c r="L31" s="46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -7444,7 +7450,7 @@
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -7456,7 +7462,7 @@
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -7468,7 +7474,7 @@
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -7480,7 +7486,7 @@
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7492,7 +7498,7 @@
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -7504,7 +7510,7 @@
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -7516,7 +7522,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -7528,7 +7534,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -7540,7 +7546,7 @@
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -7552,7 +7558,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -7564,7 +7570,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -7576,7 +7582,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -7588,7 +7594,7 @@
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -7600,7 +7606,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -7612,7 +7618,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -7624,7 +7630,7 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -7636,7 +7642,7 @@
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -7648,7 +7654,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -7660,7 +7666,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -7672,7 +7678,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -7684,7 +7690,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -7696,7 +7702,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -7708,7 +7714,7 @@
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -7720,7 +7726,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -7732,7 +7738,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -7744,7 +7750,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -7756,7 +7762,7 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -7768,7 +7774,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -7780,7 +7786,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -7792,7 +7798,7 @@
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -7804,7 +7810,7 @@
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -7816,7 +7822,7 @@
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -7828,7 +7834,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -7840,7 +7846,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -7852,7 +7858,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -7864,7 +7870,7 @@
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -7876,7 +7882,7 @@
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -7888,7 +7894,7 @@
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -7900,7 +7906,7 @@
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="35"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -7912,7 +7918,7 @@
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -7924,7 +7930,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="35"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -7936,7 +7942,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="35"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -7948,7 +7954,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="35"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -7960,7 +7966,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="35"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -7972,7 +7978,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="35"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -7984,7 +7990,7 @@
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="35"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -7996,7 +8002,7 @@
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="35"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -8008,7 +8014,7 @@
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="35"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -8020,7 +8026,7 @@
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="35"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -8032,7 +8038,7 @@
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="35"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -8044,7 +8050,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="35"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -8056,7 +8062,7 @@
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="35"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -8068,7 +8074,7 @@
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="35"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -8080,7 +8086,7 @@
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="35"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -8092,7 +8098,7 @@
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="35"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -8104,7 +8110,7 @@
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -8116,7 +8122,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -8128,7 +8134,7 @@
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="35"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -8140,7 +8146,7 @@
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="35"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -8152,7 +8158,7 @@
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="35"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -8164,7 +8170,7 @@
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="35"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -8176,7 +8182,7 @@
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="35"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -8188,7 +8194,7 @@
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="35"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -8200,7 +8206,7 @@
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="35"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -8212,7 +8218,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="35"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -8227,6 +8233,23 @@
   </sheetData>
   <autoFilter ref="A1:K31" xr:uid="{05FE33BC-0D46-48BA-B9DE-31A62492210F}"/>
   <mergeCells count="33">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="I21:I22"/>
@@ -8243,23 +8266,6 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{545C107C-2C40-4912-99E7-1F754DF735B6}"/>
